--- a/data/hotels_by_city/Houston/Houston_shard_230.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_230.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223146-Reviews-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Westchase-Richmond.h126963.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,421 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r586108927-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223146</t>
+  </si>
+  <si>
+    <t>586108927</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>No more 100.00 Deposit</t>
+  </si>
+  <si>
+    <t>I have stayed here 10-11 times in the last 8 months. When I first started staying here it was horrible.  No ice, no breakfast even they advertise they have it, vending machines work sporadically etc.
+    Over time though things have improved some. Vending machines now work, front desk more friengly.  But the biggest change with this place is that there is NO MORE 100.00 INCIDENTALS DEPOSIT FEE on check in.  This fee was not advertised on their website and people were hit with it upon check in.  I cant tell you how many upset people i encountered at the front desk over this.  It was a STUPID fee to begin with. If they are so worried about people trashing their room them maybe they should screen their guests a little better.  To hit peopke with that upon check in is just asking for bad reviews from the start.  However, good sense has prevailed and it is no more.
+    Bow go the extra mile and provide a 'real breakfast" like La Qyinta does.  They are full everytime im there (a lot) because of one thing, their breakfast.  They have bagels, a hot waffle maker, toast, hard boiled eggs, grits, oatmeal, and three kinds of cereal.  Milk, OJ, coffee and two kinds of fruit and muffins.  THAT IS A BREAKFAST EXTENDED STAY. If La Quinta can do this and keep the prices low ES can too.  If ES wants to steal customers...I have stayed here 10-11 times in the last 8 months. When I first started staying here it was horrible.  No ice, no breakfast even they advertise they have it, vending machines work sporadically etc.    Over time though things have improved some. Vending machines now work, front desk more friengly.  But the biggest change with this place is that there is NO MORE 100.00 INCIDENTALS DEPOSIT FEE on check in.  This fee was not advertised on their website and people were hit with it upon check in.  I cant tell you how many upset people i encountered at the front desk over this.  It was a STUPID fee to begin with. If they are so worried about people trashing their room them maybe they should screen their guests a little better.  To hit peopke with that upon check in is just asking for bad reviews from the start.  However, good sense has prevailed and it is no more.    Bow go the extra mile and provide a 'real breakfast" like La Qyinta does.  They are full everytime im there (a lot) because of one thing, their breakfast.  They have bagels, a hot waffle maker, toast, hard boiled eggs, grits, oatmeal, and three kinds of cereal.  Milk, OJ, coffee and two kinds of fruit and muffins.  THAT IS A BREAKFAST EXTENDED STAY. If La Quinta can do this and keep the prices low ES can too.  If ES wants to steal customers from LQ this is the way to do it.  ES does have one advantage over the LQ at 6790 SW Freeway where I stay and that is the fact that there are several fast food places right next door and a large convenience store right nect door where you can pick up food gas and neccesities that you cant get at LQ.    So ES.here is your chance to take over. By the way, LQ is still doing their 100.00 fee right now.  I have almost got them willing to drop that for people over 50 years old.  Im wotking on it now.  ES please take advantage of this the time is now you may not get another chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded June 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed here 10-11 times in the last 8 months. When I first started staying here it was horrible.  No ice, no breakfast even they advertise they have it, vending machines work sporadically etc.
+    Over time though things have improved some. Vending machines now work, front desk more friengly.  But the biggest change with this place is that there is NO MORE 100.00 INCIDENTALS DEPOSIT FEE on check in.  This fee was not advertised on their website and people were hit with it upon check in.  I cant tell you how many upset people i encountered at the front desk over this.  It was a STUPID fee to begin with. If they are so worried about people trashing their room them maybe they should screen their guests a little better.  To hit peopke with that upon check in is just asking for bad reviews from the start.  However, good sense has prevailed and it is no more.
+    Bow go the extra mile and provide a 'real breakfast" like La Qyinta does.  They are full everytime im there (a lot) because of one thing, their breakfast.  They have bagels, a hot waffle maker, toast, hard boiled eggs, grits, oatmeal, and three kinds of cereal.  Milk, OJ, coffee and two kinds of fruit and muffins.  THAT IS A BREAKFAST EXTENDED STAY. If La Quinta can do this and keep the prices low ES can too.  If ES wants to steal customers...I have stayed here 10-11 times in the last 8 months. When I first started staying here it was horrible.  No ice, no breakfast even they advertise they have it, vending machines work sporadically etc.    Over time though things have improved some. Vending machines now work, front desk more friengly.  But the biggest change with this place is that there is NO MORE 100.00 INCIDENTALS DEPOSIT FEE on check in.  This fee was not advertised on their website and people were hit with it upon check in.  I cant tell you how many upset people i encountered at the front desk over this.  It was a STUPID fee to begin with. If they are so worried about people trashing their room them maybe they should screen their guests a little better.  To hit peopke with that upon check in is just asking for bad reviews from the start.  However, good sense has prevailed and it is no more.    Bow go the extra mile and provide a 'real breakfast" like La Qyinta does.  They are full everytime im there (a lot) because of one thing, their breakfast.  They have bagels, a hot waffle maker, toast, hard boiled eggs, grits, oatmeal, and three kinds of cereal.  Milk, OJ, coffee and two kinds of fruit and muffins.  THAT IS A BREAKFAST EXTENDED STAY. If La Quinta can do this and keep the prices low ES can too.  If ES wants to steal customers from LQ this is the way to do it.  ES does have one advantage over the LQ at 6790 SW Freeway where I stay and that is the fact that there are several fast food places right next door and a large convenience store right nect door where you can pick up food gas and neccesities that you cant get at LQ.    So ES.here is your chance to take over. By the way, LQ is still doing their 100.00 fee right now.  I have almost got them willing to drop that for people over 50 years old.  Im wotking on it now.  ES please take advantage of this the time is now you may not get another chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r570013685-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570013685</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Work trip</t>
+  </si>
+  <si>
+    <t>The receptionist Rachel was such a delight ! She was more than welcoming , and had very insightful . Rachel was very helpful with information on where i should park too the traffic for the next day . I booked another night because she made my stay so EASY ! She made my stay so pleasant.i will definitely be back and hoping Rachel is there to assist ! Thank you extended stay for every thing :)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
+  </si>
+  <si>
+    <t>The receptionist Rachel was such a delight ! She was more than welcoming , and had very insightful . Rachel was very helpful with information on where i should park too the traffic for the next day . I booked another night because she made my stay so EASY ! She made my stay so pleasant.i will definitely be back and hoping Rachel is there to assist ! Thank you extended stay for every thing :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r562620378-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562620378</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Good rooms, and good service.</t>
+  </si>
+  <si>
+    <t>Hotel is nice and close to everything you need, restaurants, gas stations, grocery stores.  The Extended Stay staff is friendly, rooms aren't fancy of course, but they are nice for what you pay. My first day didn't go as planned with room arrangements, but the staff made it right.  Tonya was especially helpful. Thank you for your help, and I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded February 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2018</t>
+  </si>
+  <si>
+    <t>Hotel is nice and close to everything you need, restaurants, gas stations, grocery stores.  The Extended Stay staff is friendly, rooms aren't fancy of course, but they are nice for what you pay. My first day didn't go as planned with room arrangements, but the staff made it right.  Tonya was especially helpful. Thank you for your help, and I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r548619962-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548619962</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Extended stay</t>
+  </si>
+  <si>
+    <t>This review is based on the treatment I received from the staff that check me in and the condition of the room she assigned me. I hope this was just one isolated incident. Your rates are too high for such services. Rude staff and dirty sheets.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded December 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2017</t>
+  </si>
+  <si>
+    <t>This review is based on the treatment I received from the staff that check me in and the condition of the room she assigned me. I hope this was just one isolated incident. Your rates are too high for such services. Rude staff and dirty sheets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r548400167-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548400167</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Harassment by hotel staff.</t>
+  </si>
+  <si>
+    <t>They will take it upon themselves to harass you. ie. stomp on the floor if your room is a lower floor room, slam doors,Etc. front desk apologized moved me to another room and it was the same.  They knew of course. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>They will take it upon themselves to harass you. ie. stomp on the floor if your room is a lower floor room, slam doors,Etc. front desk apologized moved me to another room and it was the same.  They knew of course. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r547491272-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547491272</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>BEST HOTEL BED EVER</t>
+  </si>
+  <si>
+    <t>We ended up having to find a place to stay while our home is getting rebuilt after Harvey.  We have been here since September hope to be able to move back home in February.   We decided to go the extended stay route since this would work the best for us.  The room has a kitchenette with a two burner stove-top, a microwave, and a refrigerator.  The hotel provided cooking utensils, dishes, and a toaster.  There is a laundromat on the premises.  The hotel is pet friendly.  We have a dachshund.  There is a "grab and go" breakfast bar that is set up in the lobby.   You can get tea, coffee, granola bars, oatmeal, an muffins to go.  The bed is the most comfortable hotel bed I have ever experienced, although your mileage may vary.  The front desk staff is excellent.  No, this is not as nice as a more expensive hotel.  I can't make waffles in the morning.  But it does not co$t like a more deluxe hotel.  Overall I have to give it a 5-star rating based on what I am getting for the price.  We are having a peasant stay, but can't wait to get moved back home.  For now, this is our "home away from home".MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>We ended up having to find a place to stay while our home is getting rebuilt after Harvey.  We have been here since September hope to be able to move back home in February.   We decided to go the extended stay route since this would work the best for us.  The room has a kitchenette with a two burner stove-top, a microwave, and a refrigerator.  The hotel provided cooking utensils, dishes, and a toaster.  There is a laundromat on the premises.  The hotel is pet friendly.  We have a dachshund.  There is a "grab and go" breakfast bar that is set up in the lobby.   You can get tea, coffee, granola bars, oatmeal, an muffins to go.  The bed is the most comfortable hotel bed I have ever experienced, although your mileage may vary.  The front desk staff is excellent.  No, this is not as nice as a more expensive hotel.  I can't make waffles in the morning.  But it does not co$t like a more deluxe hotel.  Overall I have to give it a 5-star rating based on what I am getting for the price.  We are having a peasant stay, but can't wait to get moved back home.  For now, this is our "home away from home".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r538883246-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538883246</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Horrible Staff</t>
+  </si>
+  <si>
+    <t>The threatening in the condescending tone was unnecessary it was no fault of my own that the roaches were there they were crawling in hallways they were crawling in my room they were crawling outside in the parking lotMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>The threatening in the condescending tone was unnecessary it was no fault of my own that the roaches were there they were crawling in hallways they were crawling in my room they were crawling outside in the parking lotMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r533149919-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533149919</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Very satisfied</t>
+  </si>
+  <si>
+    <t>This was my first experience with Extended Stay and I was completely satisfied with everything and everyone. Considering, they had to make things work for everyone due to the large number of people since Hurricane Harvey hit Houston. I needed help with translating Spanish and had help at my fingertips! Everything I requested was taken care of without complaint. Wonderful stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>This was my first experience with Extended Stay and I was completely satisfied with everything and everyone. Considering, they had to make things work for everyone due to the large number of people since Hurricane Harvey hit Houston. I needed help with translating Spanish and had help at my fingertips! Everything I requested was taken care of without complaint. Wonderful stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r505296941-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505296941</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Awesome STAY</t>
+  </si>
+  <si>
+    <t>The location was great vary quite. The room smelled great vary clean as well. Eboni at the front was great Awesome customer service skills. Coffee can be better. Overall this location is a great pick.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>The location was great vary quite. The room smelled great vary clean as well. Eboni at the front was great Awesome customer service skills. Coffee can be better. Overall this location is a great pick.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r493840289-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493840289</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Refund me Please</t>
+  </si>
+  <si>
+    <t>My toilet was clogged up my bathroom floor had water on it from the toilet , my AC wouldn't keep cool and the front desk clerk that morning was very rude I like a complete refund please and thank you ! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>My toilet was clogged up my bathroom floor had water on it from the toilet , my AC wouldn't keep cool and the front desk clerk that morning was very rude I like a complete refund please and thank you ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r491877572-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491877572</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this hotel. The staff is very friendly and courteous. The beds were very comfortable and very clean room. Easy access to the Medical Center. I liked that it was nearby the places I needed to go to.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this hotel. The staff is very friendly and courteous. The beds were very comfortable and very clean room. Easy access to the Medical Center. I liked that it was nearby the places I needed to go to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r459378361-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459378361</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Refurbished Extended Stay</t>
+  </si>
+  <si>
+    <t>The motel has been refurbished, is non smoking and is in good shape. My only negative is that the clientèle are kind of creepy and they hang outside the front door smoking.cigarettes since they cannot do so in their rooms. The breakfast is forgettable unless you dine on Granola bars. They keep the back gate closed so you cannot use Rogerdale for exit or entry which would be helpful as exit on the frontage road and getting to the uturn to go North is very difficult.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r441135787-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441135787</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>Great Staff, the area can be sketchy</t>
+  </si>
+  <si>
+    <t>If you're wondering, breakfast is muffins with coffee or tea or hot coco. It use to be fruits as well.If you have no problem with being next to a freeway, here are my honest pros and cons experience.Pros: A majority of the staff were friendly and helpful.Hotel condition is not bad.Good social location.Cons: Very Slow Internet.My car was broken into twice. No suspects.The Chevron gas station sells crack pipes which brings unwanted company into the area.The creek in the back is nice with fishes, turtles, frogs and birds, but can smell and is heavily trashed and polluted.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r437606191-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437606191</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>If you write a bad review, they will play games with your incidental deposit!!!!</t>
+  </si>
+  <si>
+    <t>I added a night through price line and informed the front desk. The first night they told me I had to have $25 for a deposit on a card. I offered $25 in cash to avoid my funds being held. They said it would have to be $100 if the deposit was cash???!!! Then he said he could not use a Visa card unless it had my name on it. He was going to put me into the street with a room prepaid through Price line. He tried the card at my urgency and it was accepted. So to get me back I guess, when I added a night through Price line, they locked me out of my room and made me do another $25 deposit on my card. So now $50 is being held from my funds and a new guy lied to me yesterday saying the system would not allow him to do it any other way. This isn't true. Even at Greens point, they waived a second deposit because the stay was consecutive days. This is purposeful harassment. You switch people and then lie to the guests and make up policies. How about forcing your employees to abuse your guests because of a bad review instead of improving the guest's experience. Don't stay here. It is not worth the hassle and the inconvenience. They KNEW they weren't going to refund my money to my card.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I added a night through price line and informed the front desk. The first night they told me I had to have $25 for a deposit on a card. I offered $25 in cash to avoid my funds being held. They said it would have to be $100 if the deposit was cash???!!! Then he said he could not use a Visa card unless it had my name on it. He was going to put me into the street with a room prepaid through Price line. He tried the card at my urgency and it was accepted. So to get me back I guess, when I added a night through Price line, they locked me out of my room and made me do another $25 deposit on my card. So now $50 is being held from my funds and a new guy lied to me yesterday saying the system would not allow him to do it any other way. This isn't true. Even at Greens point, they waived a second deposit because the stay was consecutive days. This is purposeful harassment. You switch people and then lie to the guests and make up policies. How about forcing your employees to abuse your guests because of a bad review instead of improving the guest's experience. Don't stay here. It is not worth the hassle and the inconvenience. They KNEW they weren't going to refund my money to my card.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r426149290-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426149290</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Great managers</t>
+  </si>
+  <si>
+    <t>Amanda and Alexis are amazing. They really know how to keep it professional. I will definitely stay here again. My room is always clean. Check in process was smooth. I feel so comfortable. Dontaye is awesome as well. He is great.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Amanda and Alexis are amazing. They really know how to keep it professional. I will definitely stay here again. My room is always clean. Check in process was smooth. I feel so comfortable. Dontaye is awesome as well. He is great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r419157829-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419157829</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here to visit for a few days.  We were very happy with the stay. Management is always working on improvements to hotel. New lighting for guest parking and security.Alexis , Assistant Manager always greeted us on a daily basis.Night desk staff friendly as well. Dontey, guest services provided needed toiletries or request for room.  Very courteous staff.Room has full standing refrigerator and sink a d microwave for extended stays.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
   </si>
 </sst>
 </file>
@@ -532,11 +953,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +985,1123 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>170</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_230.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_230.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,16 +147,118 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r605669275-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223146</t>
+  </si>
+  <si>
+    <t>605669275</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>We had a great stay . staff was awesome . security at night . non smoking facility . whatever we needed we recieved. Very accommodating and helpful. Will be back to stay at this hotel . everything is near by . overall we loved our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We had a great stay . staff was awesome . security at night . non smoking facility . whatever we needed we recieved. Very accommodating and helpful. Will be back to stay at this hotel . everything is near by . overall we loved our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r605651007-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>605651007</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Staying here with my family was great. My husband and I loved it,they have great customer service. We even met the GM and she was awesome. From all the times we traveled we have never meet the managers at other hotels. Made us feel right at home. We will be coming back on our next family vacation. So keep doing what y'all are doing will be returning back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staying here with my family was great. My husband and I loved it,they have great customer service. We even met the GM and she was awesome. From all the times we traveled we have never meet the managers at other hotels. Made us feel right at home. We will be coming back on our next family vacation. So keep doing what y'all are doing will be returning back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r596419905-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596419905</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>home away from home</t>
+  </si>
+  <si>
+    <t>They are very accommodating and staff is friendly , its a home away from home. if they have it they will give it to you. the staff cares about the property and the guest that stays at their property. just ask and they will do their best for you. My experience at this hotel was awesomeMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded July 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2018</t>
+  </si>
+  <si>
+    <t>They are very accommodating and staff is friendly , its a home away from home. if they have it they will give it to you. the staff cares about the property and the guest that stays at their property. just ask and they will do their best for you. My experience at this hotel was awesomeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r590677528-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590677528</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>It Will Do Just Fine!!!</t>
+  </si>
+  <si>
+    <t>Not fancy, no frills, no fuss!!!  Simple with excellent prices!!! Customer Service is fine and rooms are decent. Location is good, walking distance to Red Robin and a few other resturant chains.  Close to major freeways.  I have stayed at this location twice in the last year and have no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Not fancy, no frills, no fuss!!!  Simple with excellent prices!!! Customer Service is fine and rooms are decent. Location is good, walking distance to Red Robin and a few other resturant chains.  Close to major freeways.  I have stayed at this location twice in the last year and have no complaints.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r586108927-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223146</t>
   </si>
   <si>
     <t>586108927</t>
@@ -173,9 +275,6 @@
     Bow go the extra mile and provide a 'real breakfast" like La Qyinta does.  They are full everytime im there (a lot) because of one thing, their breakfast.  They have bagels, a hot waffle maker, toast, hard boiled eggs, grits, oatmeal, and three kinds of cereal.  Milk, OJ, coffee and two kinds of fruit and muffins.  THAT IS A BREAKFAST EXTENDED STAY. If La Quinta can do this and keep the prices low ES can too.  If ES wants to steal customers...I have stayed here 10-11 times in the last 8 months. When I first started staying here it was horrible.  No ice, no breakfast even they advertise they have it, vending machines work sporadically etc.    Over time though things have improved some. Vending machines now work, front desk more friengly.  But the biggest change with this place is that there is NO MORE 100.00 INCIDENTALS DEPOSIT FEE on check in.  This fee was not advertised on their website and people were hit with it upon check in.  I cant tell you how many upset people i encountered at the front desk over this.  It was a STUPID fee to begin with. If they are so worried about people trashing their room them maybe they should screen their guests a little better.  To hit peopke with that upon check in is just asking for bad reviews from the start.  However, good sense has prevailed and it is no more.    Bow go the extra mile and provide a 'real breakfast" like La Qyinta does.  They are full everytime im there (a lot) because of one thing, their breakfast.  They have bagels, a hot waffle maker, toast, hard boiled eggs, grits, oatmeal, and three kinds of cereal.  Milk, OJ, coffee and two kinds of fruit and muffins.  THAT IS A BREAKFAST EXTENDED STAY. If La Quinta can do this and keep the prices low ES can too.  If ES wants to steal customers from LQ this is the way to do it.  ES does have one advantage over the LQ at 6790 SW Freeway where I stay and that is the fact that there are several fast food places right next door and a large convenience store right nect door where you can pick up food gas and neccesities that you cant get at LQ.    So ES.here is your chance to take over. By the way, LQ is still doing their 100.00 fee right now.  I have almost got them willing to drop that for people over 50 years old.  Im wotking on it now.  ES please take advantage of this the time is now you may not get another chance.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -244,6 +343,57 @@
     <t>Hotel is nice and close to everything you need, restaurants, gas stations, grocery stores.  The Extended Stay staff is friendly, rooms aren't fancy of course, but they are nice for what you pay. My first day didn't go as planned with room arrangements, but the staff made it right.  Tonya was especially helpful. Thank you for your help, and I would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r557852448-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557852448</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Front desk was rude.</t>
+  </si>
+  <si>
+    <t>When I booked through Priceline.com.I used my nick name Patricia Van Instead Phuangpet VanI tried to showed her my confirmation through email from my cell phone.I showed her my credit card with last name Van.My ID with Van .She won't except all of those.When I booked with my Patricia Van any where else I did not have problems.Finally I called Priceline.Issue was resolved.She did not friendly at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>When I booked through Priceline.com.I used my nick name Patricia Van Instead Phuangpet VanI tried to showed her my confirmation through email from my cell phone.I showed her my credit card with last name Van.My ID with Van .She won't except all of those.When I booked with my Patricia Van any where else I did not have problems.Finally I called Priceline.Issue was resolved.She did not friendly at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r552316562-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552316562</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>We were very pleased with the hotel. It is quiet, comfortable, spacious, close to restaurants and shopping - so convenient! The staff is helpful and responsive. We will definitely stay there again. Jerry and Raya S. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>We were very pleased with the hotel. It is quiet, comfortable, spacious, close to restaurants and shopping - so convenient! The staff is helpful and responsive. We will definitely stay there again. Jerry and Raya S. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r548619962-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
   </si>
   <si>
@@ -289,9 +439,6 @@
     <t>They will take it upon themselves to harass you. ie. stomp on the floor if your room is a lower floor room, slam doors,Etc. front desk apologized moved me to another room and it was the same.  They knew of course. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded December 22, 2017</t>
   </si>
   <si>
@@ -319,9 +466,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded December 18, 2017</t>
   </si>
   <si>
@@ -331,6 +475,57 @@
     <t>We ended up having to find a place to stay while our home is getting rebuilt after Harvey.  We have been here since September hope to be able to move back home in February.   We decided to go the extended stay route since this would work the best for us.  The room has a kitchenette with a two burner stove-top, a microwave, and a refrigerator.  The hotel provided cooking utensils, dishes, and a toaster.  There is a laundromat on the premises.  The hotel is pet friendly.  We have a dachshund.  There is a "grab and go" breakfast bar that is set up in the lobby.   You can get tea, coffee, granola bars, oatmeal, an muffins to go.  The bed is the most comfortable hotel bed I have ever experienced, although your mileage may vary.  The front desk staff is excellent.  No, this is not as nice as a more expensive hotel.  I can't make waffles in the morning.  But it does not co$t like a more deluxe hotel.  Overall I have to give it a 5-star rating based on what I am getting for the price.  We are having a peasant stay, but can't wait to get moved back home.  For now, this is our "home away from home".More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r547209123-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547209123</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>My stay was Wonderful My room was neat and clean I had peace and quiet at night. The hotel was close and convenient for me and my friends to go to and from our events without having to be late and miss all the heavy traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>My stay was Wonderful My room was neat and clean I had peace and quiet at night. The hotel was close and convenient for me and my friends to go to and from our events without having to be late and miss all the heavy traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r541599495-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541599495</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>MOH.</t>
+  </si>
+  <si>
+    <t>I have enjoyed staying at this particular location, because of the customer service. I have come to know the workers by name starting with Reba, Ebony, Rachel, Tina, Jasmine who have all made my weekly stays memorable.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2017</t>
+  </si>
+  <si>
+    <t>I have enjoyed staying at this particular location, because of the customer service. I have come to know the workers by name starting with Reba, Ebony, Rachel, Tina, Jasmine who have all made my weekly stays memorable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r538883246-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
   </si>
   <si>
@@ -346,9 +541,6 @@
     <t>The threatening in the condescending tone was unnecessary it was no fault of my own that the roaches were there they were crawling in hallways they were crawling in my room they were crawling outside in the parking lotMoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded November 7, 2017</t>
   </si>
   <si>
@@ -409,6 +601,57 @@
     <t>The location was great vary quite. The room smelled great vary clean as well. Eboni at the front was great Awesome customer service skills. Coffee can be better. Overall this location is a great pick.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r500225737-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500225737</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>1ST TIME IN HOUSTON</t>
+  </si>
+  <si>
+    <t>I was welcomed and given a good send off from my location on Richmond.If I'm ever back in Houston, I'll be staying there.I also liked how clean and quiet everything was and how cordial the staff was and attentive to me and MY needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>I was welcomed and given a good send off from my location on Richmond.If I'm ever back in Houston, I'll be staying there.I also liked how clean and quiet everything was and how cordial the staff was and attentive to me and MY needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r498044583-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498044583</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Rude customer service</t>
+  </si>
+  <si>
+    <t>When we arrived to check out, the front desk attendant was rude, argumentative, and yelling at a customer in front of me. When she started to check me out, she never inquired about my stay. When I brought it to her attention, along with the fact that there was a bug crawling in the bed when I woke up that morning, she was neither concerened nor apologetic. The worst customer service I have ever received.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>When we arrived to check out, the front desk attendant was rude, argumentative, and yelling at a customer in front of me. When she started to check me out, she never inquired about my stay. When I brought it to her attention, along with the fact that there was a bug crawling in the bed when I woke up that morning, she was neither concerened nor apologetic. The worst customer service I have ever received.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r493840289-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
   </si>
   <si>
@@ -424,9 +667,6 @@
     <t>My toilet was clogged up my bathroom floor had water on it from the toilet , my AC wouldn't keep cool and the front desk clerk that morning was very rude I like a complete refund please and thank you ! MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded June 18, 2017</t>
   </si>
   <si>
@@ -478,6 +718,51 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r455583984-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455583984</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Exceeded Expectations</t>
+  </si>
+  <si>
+    <t>We wanted a cheap hotel to spend 3 nights and choose this hotel as it was the cheapest "non-motel" accommodation in Westchase. We wend with low expectations, but found the hotel in a safe area. check in had some problems with the system but otherwise it went OK. The room was clean and spacious with nice kitchen amenities.They offer very simple grab and go breakfast that should be enough to start your day.The only downside to me was the lack of daily housekeeping (only weekly is provided) and the unavailability of an in-room safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded January 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2017</t>
+  </si>
+  <si>
+    <t>We wanted a cheap hotel to spend 3 nights and choose this hotel as it was the cheapest "non-motel" accommodation in Westchase. We wend with low expectations, but found the hotel in a safe area. check in had some problems with the system but otherwise it went OK. The room was clean and spacious with nice kitchen amenities.They offer very simple grab and go breakfast that should be enough to start your day.The only downside to me was the lack of daily housekeeping (only weekly is provided) and the unavailability of an in-room safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r450945172-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450945172</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>What the heck?</t>
+  </si>
+  <si>
+    <t>Upon our arrival, which was in the evening, the front door was locked and had to call the front desk to open it.  This was an on going problem throughout our stay being that the card reader was broken and the front desk was never "at the front desk." Kitchen was suppose to be furnished, and called to get the things we needed, and the front desk told me that I can to go down and get them(coffee pot/coffee with no sweetener or cream, pots, forks, ect.) No hair dryer in room either, was told we had to go get it from the front desk because there was only one person working and only one hair dryer for entire hotel  (their words not mine). Went downstairs for complementary breakfast, had packages of oatmeal and Burry muffins. I grab 3 muffins (my wife, my son, and myself) and front desk told me there is a limit of 2 on muffins. And had an attitude with me when I said who all was eating the muffins.   By far worst hotel I have ever stayed in and I was in this horrible place for 2 nights.   I will never stay in anything associated with extended stay ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon our arrival, which was in the evening, the front door was locked and had to call the front desk to open it.  This was an on going problem throughout our stay being that the card reader was broken and the front desk was never "at the front desk." Kitchen was suppose to be furnished, and called to get the things we needed, and the front desk told me that I can to go down and get them(coffee pot/coffee with no sweetener or cream, pots, forks, ect.) No hair dryer in room either, was told we had to go get it from the front desk because there was only one person working and only one hair dryer for entire hotel  (their words not mine). Went downstairs for complementary breakfast, had packages of oatmeal and Burry muffins. I grab 3 muffins (my wife, my son, and myself) and front desk told me there is a limit of 2 on muffins. And had an attitude with me when I said who all was eating the muffins.   By far worst hotel I have ever stayed in and I was in this horrible place for 2 nights.   I will never stay in anything associated with extended stay ever again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r441135787-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
   </si>
   <si>
@@ -544,6 +829,51 @@
     <t>Amanda and Alexis are amazing. They really know how to keep it professional. I will definitely stay here again. My room is always clean. Check in process was smooth. I feel so comfortable. Dontaye is awesome as well. He is great.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r423571020-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423571020</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Alexis is awesome! the staff is friendly. The bed is soft in my room!!! if i moved to another room i would want to take my mattress. The price is within my budget. I have the EPP rate. Very affordable. Amanda and Alexis talked me into this place. Its a rough neighborhood Alexis helps me feel protectedMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Westchase - Richmond, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Alexis is awesome! the staff is friendly. The bed is soft in my room!!! if i moved to another room i would want to take my mattress. The price is within my budget. I have the EPP rate. Very affordable. Amanda and Alexis talked me into this place. Its a rough neighborhood Alexis helps me feel protectedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r423352365-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423352365</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved it </t>
+  </si>
+  <si>
+    <t>It's was so close to the MD ANDERSON hospital. We loved it there. We go to this place every time we come. It's cheap and just down the road from md Anderson. Very convenient. The rooms are very nice......MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>It's was so close to the MD ANDERSON hospital. We loved it there. We go to this place every time we come. It's cheap and just down the road from md Anderson. Very convenient. The rooms are very nice......More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223146-r419157829-Extended_Stay_America_Houston_Westchase_Richmond-Houston_Texas.html</t>
   </si>
   <si>
@@ -557,9 +887,6 @@
   </si>
   <si>
     <t>Stayed here to visit for a few days.  We were very happy with the stay. Management is always working on improvements to hotel. New lighting for guest parking and security.Alexis , Assistant Manager always greeted us on a daily basis.Night desk staff friendly as well. Dontey, guest services provided needed toiletries or request for room.  Very courteous staff.Room has full standing refrigerator and sink a d microwave for extended stays.</t>
-  </si>
-  <si>
-    <t>September 2016</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1421,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1146,19 +1473,19 @@
         <v>57</v>
       </c>
       <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
@@ -1173,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1195,7 +1522,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1204,53 +1531,49 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1266,7 +1589,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1275,53 +1598,43 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
       <c r="O5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -1337,7 +1650,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1346,25 +1659,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
         <v>85</v>
-      </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>89</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1376,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1398,7 +1711,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1407,25 +1720,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>98</v>
-      </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1437,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -1459,7 +1772,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1468,53 +1781,53 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -1530,7 +1843,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1539,53 +1852,53 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -1601,7 +1914,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1610,53 +1923,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
         <v>52</v>
       </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -1672,7 +1975,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1681,25 +1984,25 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
         <v>130</v>
-      </c>
-      <c r="J11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>134</v>
-      </c>
-      <c r="O11" t="s">
-        <v>80</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1721,13 +2024,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -1743,7 +2046,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1752,53 +2055,43 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -1814,7 +2107,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1823,41 +2116,41 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>147</v>
       </c>
-      <c r="J13" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" t="s">
-        <v>150</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>151</v>
-      </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
       <c r="Y13" t="s">
         <v>150</v>
       </c>
@@ -1875,7 +2168,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1884,45 +2177,43 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
         <v>153</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" t="s">
         <v>154</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>155</v>
       </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
         <v>156</v>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>157</v>
-      </c>
-      <c r="O14" t="s">
-        <v>99</v>
-      </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -1938,7 +2229,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1947,39 +2238,53 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
@@ -1995,7 +2300,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2004,43 +2309,53 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -2056,7 +2371,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2065,32 +2380,38 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2098,10 +2419,922 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>207</v>
+      </c>
+      <c r="X20" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>215</v>
+      </c>
+      <c r="X21" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>223</v>
+      </c>
+      <c r="X22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>237</v>
+      </c>
+      <c r="O24" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>238</v>
+      </c>
+      <c r="X24" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" t="s">
+        <v>244</v>
+      </c>
+      <c r="L25" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>265</v>
+      </c>
+      <c r="O28" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>266</v>
+      </c>
+      <c r="X28" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>274</v>
+      </c>
+      <c r="X29" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" t="s">
+        <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>281</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>282</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+      <c r="X30" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37432</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" t="s">
+        <v>288</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>282</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
